--- a/output/compo fish/summary_fish_compo_sp.xlsx
+++ b/output/compo fish/summary_fish_compo_sp.xlsx
@@ -155,7 +155,7 @@
     <t xml:space="preserve">Nansenia antarctica</t>
   </si>
   <si>
-    <t xml:space="preserve">Notolepsis coatsi</t>
+    <t xml:space="preserve">Notolepis coatsi</t>
   </si>
   <si>
     <t xml:space="preserve">Paradiplospinus gracilis</t>

--- a/output/compo fish/summary_fish_compo_sp.xlsx
+++ b/output/compo fish/summary_fish_compo_sp.xlsx
@@ -161,7 +161,7 @@
     <t xml:space="preserve">Muraenolepididae</t>
   </si>
   <si>
-    <t xml:space="preserve">Muraenolepsis sp</t>
+    <t xml:space="preserve">Muraenolepis sp</t>
   </si>
   <si>
     <t xml:space="preserve">Myctophidae</t>
